--- a/Modulo5/src/out/info_estados/New Mexico.xlsx
+++ b/Modulo5/src/out/info_estados/New Mexico.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="59">
   <si>
     <t>state</t>
   </si>
@@ -40,10 +40,10 @@
     <t>fraction_votes</t>
   </si>
   <si>
-    <t>nueva_columna</t>
+    <t>nuevaColumna</t>
   </si>
   <si>
-    <t>columna_aumentada</t>
+    <t>slogan</t>
   </si>
   <si>
     <t>letra_inicial</t>
@@ -182,6 +182,12 @@
   </si>
   <si>
     <t>Ted Cruz</t>
+  </si>
+  <si>
+    <t>Un buen partido</t>
+  </si>
+  <si>
+    <t>No pobres en pais rico</t>
   </si>
   <si>
     <t>N</t>
@@ -620,14 +626,14 @@
       <c r="I2">
         <v>1</v>
       </c>
-      <c r="J2">
-        <v>3</v>
+      <c r="J2" t="s">
+        <v>56</v>
       </c>
       <c r="K2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L2">
-        <v>4</v>
+        <v>38248</v>
       </c>
       <c r="M2">
         <v>35001</v>
@@ -664,14 +670,14 @@
       <c r="I3">
         <v>1</v>
       </c>
-      <c r="J3">
-        <v>3</v>
+      <c r="J3" t="s">
+        <v>56</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>36938</v>
       </c>
       <c r="M3">
         <v>35001</v>
@@ -708,14 +714,14 @@
       <c r="I4">
         <v>1</v>
       </c>
-      <c r="J4">
-        <v>3</v>
+      <c r="J4" t="s">
+        <v>57</v>
       </c>
       <c r="K4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L4">
-        <v>4</v>
+        <v>21185</v>
       </c>
       <c r="M4">
         <v>35001</v>
@@ -752,14 +758,14 @@
       <c r="I5">
         <v>1</v>
       </c>
-      <c r="J5">
-        <v>3</v>
+      <c r="J5" t="s">
+        <v>57</v>
       </c>
       <c r="K5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>3231</v>
       </c>
       <c r="M5">
         <v>35001</v>
@@ -796,14 +802,14 @@
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6">
-        <v>3</v>
+      <c r="J6" t="s">
+        <v>57</v>
       </c>
       <c r="K6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>3979</v>
       </c>
       <c r="M6">
         <v>35001</v>
@@ -840,14 +846,14 @@
       <c r="I7">
         <v>1</v>
       </c>
-      <c r="J7">
-        <v>3</v>
+      <c r="J7" t="s">
+        <v>56</v>
       </c>
       <c r="K7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>184</v>
       </c>
       <c r="M7">
         <v>35003</v>
@@ -884,14 +890,14 @@
       <c r="I8">
         <v>1</v>
       </c>
-      <c r="J8">
-        <v>3</v>
+      <c r="J8" t="s">
+        <v>56</v>
       </c>
       <c r="K8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>116</v>
       </c>
       <c r="M8">
         <v>35003</v>
@@ -928,14 +934,14 @@
       <c r="I9">
         <v>1</v>
       </c>
-      <c r="J9">
-        <v>3</v>
+      <c r="J9" t="s">
+        <v>57</v>
       </c>
       <c r="K9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>502</v>
       </c>
       <c r="M9">
         <v>35003</v>
@@ -972,14 +978,14 @@
       <c r="I10">
         <v>1</v>
       </c>
-      <c r="J10">
-        <v>3</v>
+      <c r="J10" t="s">
+        <v>57</v>
       </c>
       <c r="K10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="M10">
         <v>35003</v>
@@ -1016,14 +1022,14 @@
       <c r="I11">
         <v>1</v>
       </c>
-      <c r="J11">
-        <v>3</v>
+      <c r="J11" t="s">
+        <v>57</v>
       </c>
       <c r="K11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="M11">
         <v>35003</v>
@@ -1060,14 +1066,14 @@
       <c r="I12">
         <v>1</v>
       </c>
-      <c r="J12">
-        <v>3</v>
+      <c r="J12" t="s">
+        <v>56</v>
       </c>
       <c r="K12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>951</v>
       </c>
       <c r="M12">
         <v>35005</v>
@@ -1104,14 +1110,14 @@
       <c r="I13">
         <v>1</v>
       </c>
-      <c r="J13">
-        <v>3</v>
+      <c r="J13" t="s">
+        <v>56</v>
       </c>
       <c r="K13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L13">
-        <v>4</v>
+        <v>1239</v>
       </c>
       <c r="M13">
         <v>35005</v>
@@ -1148,14 +1154,14 @@
       <c r="I14">
         <v>1</v>
       </c>
-      <c r="J14">
-        <v>3</v>
+      <c r="J14" t="s">
+        <v>57</v>
       </c>
       <c r="K14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L14">
-        <v>4</v>
+        <v>3613</v>
       </c>
       <c r="M14">
         <v>35005</v>
@@ -1192,14 +1198,14 @@
       <c r="I15">
         <v>1</v>
       </c>
-      <c r="J15">
-        <v>3</v>
+      <c r="J15" t="s">
+        <v>57</v>
       </c>
       <c r="K15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>203</v>
       </c>
       <c r="M15">
         <v>35005</v>
@@ -1236,14 +1242,14 @@
       <c r="I16">
         <v>1</v>
       </c>
-      <c r="J16">
-        <v>3</v>
+      <c r="J16" t="s">
+        <v>57</v>
       </c>
       <c r="K16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>554</v>
       </c>
       <c r="M16">
         <v>35005</v>
@@ -1280,14 +1286,14 @@
       <c r="I17">
         <v>1</v>
       </c>
-      <c r="J17">
-        <v>3</v>
+      <c r="J17" t="s">
+        <v>56</v>
       </c>
       <c r="K17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L17">
-        <v>4</v>
+        <v>1495</v>
       </c>
       <c r="M17">
         <v>35006</v>
@@ -1324,14 +1330,14 @@
       <c r="I18">
         <v>1</v>
       </c>
-      <c r="J18">
-        <v>3</v>
+      <c r="J18" t="s">
+        <v>56</v>
       </c>
       <c r="K18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L18">
-        <v>4</v>
+        <v>1587</v>
       </c>
       <c r="M18">
         <v>35006</v>
@@ -1368,14 +1374,14 @@
       <c r="I19">
         <v>1</v>
       </c>
-      <c r="J19">
-        <v>3</v>
+      <c r="J19" t="s">
+        <v>57</v>
       </c>
       <c r="K19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>677</v>
       </c>
       <c r="M19">
         <v>35006</v>
@@ -1412,14 +1418,14 @@
       <c r="I20">
         <v>1</v>
       </c>
-      <c r="J20">
-        <v>3</v>
+      <c r="J20" t="s">
+        <v>57</v>
       </c>
       <c r="K20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L20">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="M20">
         <v>35006</v>
@@ -1456,14 +1462,14 @@
       <c r="I21">
         <v>1</v>
       </c>
-      <c r="J21">
-        <v>3</v>
+      <c r="J21" t="s">
+        <v>57</v>
       </c>
       <c r="K21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L21">
-        <v>4</v>
+        <v>151</v>
       </c>
       <c r="M21">
         <v>35006</v>
@@ -1500,14 +1506,14 @@
       <c r="I22">
         <v>1</v>
       </c>
-      <c r="J22">
-        <v>3</v>
+      <c r="J22" t="s">
+        <v>56</v>
       </c>
       <c r="K22" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>741</v>
       </c>
       <c r="M22">
         <v>35007</v>
@@ -1544,14 +1550,14 @@
       <c r="I23">
         <v>1</v>
       </c>
-      <c r="J23">
-        <v>3</v>
+      <c r="J23" t="s">
+        <v>56</v>
       </c>
       <c r="K23" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L23">
-        <v>4</v>
+        <v>950</v>
       </c>
       <c r="M23">
         <v>35007</v>
@@ -1588,14 +1594,14 @@
       <c r="I24">
         <v>1</v>
       </c>
-      <c r="J24">
-        <v>3</v>
+      <c r="J24" t="s">
+        <v>57</v>
       </c>
       <c r="K24" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L24">
-        <v>4</v>
+        <v>569</v>
       </c>
       <c r="M24">
         <v>35007</v>
@@ -1632,14 +1638,14 @@
       <c r="I25">
         <v>1</v>
       </c>
-      <c r="J25">
-        <v>3</v>
+      <c r="J25" t="s">
+        <v>57</v>
       </c>
       <c r="K25" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L25">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="M25">
         <v>35007</v>
@@ -1676,14 +1682,14 @@
       <c r="I26">
         <v>1</v>
       </c>
-      <c r="J26">
-        <v>3</v>
+      <c r="J26" t="s">
+        <v>57</v>
       </c>
       <c r="K26" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L26">
-        <v>4</v>
+        <v>111</v>
       </c>
       <c r="M26">
         <v>35007</v>
@@ -1720,14 +1726,14 @@
       <c r="I27">
         <v>1</v>
       </c>
-      <c r="J27">
-        <v>3</v>
+      <c r="J27" t="s">
+        <v>56</v>
       </c>
       <c r="K27" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L27">
-        <v>4</v>
+        <v>769</v>
       </c>
       <c r="M27">
         <v>35009</v>
@@ -1764,14 +1770,14 @@
       <c r="I28">
         <v>1</v>
       </c>
-      <c r="J28">
-        <v>3</v>
+      <c r="J28" t="s">
+        <v>56</v>
       </c>
       <c r="K28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>673</v>
       </c>
       <c r="M28">
         <v>35009</v>
@@ -1808,14 +1814,14 @@
       <c r="I29">
         <v>1</v>
       </c>
-      <c r="J29">
-        <v>3</v>
+      <c r="J29" t="s">
+        <v>57</v>
       </c>
       <c r="K29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L29">
-        <v>4</v>
+        <v>2584</v>
       </c>
       <c r="M29">
         <v>35009</v>
@@ -1852,14 +1858,14 @@
       <c r="I30">
         <v>1</v>
       </c>
-      <c r="J30">
-        <v>3</v>
+      <c r="J30" t="s">
+        <v>57</v>
       </c>
       <c r="K30" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L30">
-        <v>4</v>
+        <v>127</v>
       </c>
       <c r="M30">
         <v>35009</v>
@@ -1896,14 +1902,14 @@
       <c r="I31">
         <v>1</v>
       </c>
-      <c r="J31">
-        <v>3</v>
+      <c r="J31" t="s">
+        <v>57</v>
       </c>
       <c r="K31" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L31">
-        <v>4</v>
+        <v>355</v>
       </c>
       <c r="M31">
         <v>35009</v>
@@ -1940,14 +1946,14 @@
       <c r="I32">
         <v>1</v>
       </c>
-      <c r="J32">
-        <v>3</v>
+      <c r="J32" t="s">
+        <v>56</v>
       </c>
       <c r="K32" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L32">
-        <v>4</v>
+        <v>115</v>
       </c>
       <c r="M32">
         <v>35011</v>
@@ -1984,14 +1990,14 @@
       <c r="I33">
         <v>1</v>
       </c>
-      <c r="J33">
-        <v>3</v>
+      <c r="J33" t="s">
+        <v>56</v>
       </c>
       <c r="K33" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L33">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="M33">
         <v>35011</v>
@@ -2028,14 +2034,14 @@
       <c r="I34">
         <v>1</v>
       </c>
-      <c r="J34">
-        <v>3</v>
+      <c r="J34" t="s">
+        <v>57</v>
       </c>
       <c r="K34" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L34">
-        <v>4</v>
+        <v>152</v>
       </c>
       <c r="M34">
         <v>35011</v>
@@ -2072,14 +2078,14 @@
       <c r="I35">
         <v>1</v>
       </c>
-      <c r="J35">
-        <v>3</v>
+      <c r="J35" t="s">
+        <v>57</v>
       </c>
       <c r="K35" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L35">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="M35">
         <v>35011</v>
@@ -2116,14 +2122,14 @@
       <c r="I36">
         <v>1</v>
       </c>
-      <c r="J36">
-        <v>3</v>
+      <c r="J36" t="s">
+        <v>57</v>
       </c>
       <c r="K36" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L36">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="M36">
         <v>35011</v>
@@ -2160,14 +2166,14 @@
       <c r="I37">
         <v>1</v>
       </c>
-      <c r="J37">
-        <v>3</v>
+      <c r="J37" t="s">
+        <v>56</v>
       </c>
       <c r="K37" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L37">
-        <v>4</v>
+        <v>7244</v>
       </c>
       <c r="M37">
         <v>35013</v>
@@ -2204,14 +2210,14 @@
       <c r="I38">
         <v>1</v>
       </c>
-      <c r="J38">
-        <v>3</v>
+      <c r="J38" t="s">
+        <v>56</v>
       </c>
       <c r="K38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L38">
-        <v>4</v>
+        <v>9098</v>
       </c>
       <c r="M38">
         <v>35013</v>
@@ -2248,14 +2254,14 @@
       <c r="I39">
         <v>1</v>
       </c>
-      <c r="J39">
-        <v>3</v>
+      <c r="J39" t="s">
+        <v>57</v>
       </c>
       <c r="K39" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L39">
-        <v>4</v>
+        <v>4890</v>
       </c>
       <c r="M39">
         <v>35013</v>
@@ -2292,14 +2298,14 @@
       <c r="I40">
         <v>1</v>
       </c>
-      <c r="J40">
-        <v>3</v>
+      <c r="J40" t="s">
+        <v>57</v>
       </c>
       <c r="K40" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L40">
-        <v>4</v>
+        <v>678</v>
       </c>
       <c r="M40">
         <v>35013</v>
@@ -2336,14 +2342,14 @@
       <c r="I41">
         <v>1</v>
       </c>
-      <c r="J41">
-        <v>3</v>
+      <c r="J41" t="s">
+        <v>57</v>
       </c>
       <c r="K41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L41">
-        <v>4</v>
+        <v>1017</v>
       </c>
       <c r="M41">
         <v>35013</v>
@@ -2380,14 +2386,14 @@
       <c r="I42">
         <v>1</v>
       </c>
-      <c r="J42">
-        <v>3</v>
+      <c r="J42" t="s">
+        <v>56</v>
       </c>
       <c r="K42" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L42">
-        <v>4</v>
+        <v>1341</v>
       </c>
       <c r="M42">
         <v>35015</v>
@@ -2424,14 +2430,14 @@
       <c r="I43">
         <v>1</v>
       </c>
-      <c r="J43">
-        <v>3</v>
+      <c r="J43" t="s">
+        <v>56</v>
       </c>
       <c r="K43" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L43">
-        <v>4</v>
+        <v>1567</v>
       </c>
       <c r="M43">
         <v>35015</v>
@@ -2468,14 +2474,14 @@
       <c r="I44">
         <v>1</v>
       </c>
-      <c r="J44">
-        <v>3</v>
+      <c r="J44" t="s">
+        <v>57</v>
       </c>
       <c r="K44" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L44">
-        <v>4</v>
+        <v>3410</v>
       </c>
       <c r="M44">
         <v>35015</v>
@@ -2512,14 +2518,14 @@
       <c r="I45">
         <v>1</v>
       </c>
-      <c r="J45">
-        <v>3</v>
+      <c r="J45" t="s">
+        <v>57</v>
       </c>
       <c r="K45" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L45">
-        <v>4</v>
+        <v>178</v>
       </c>
       <c r="M45">
         <v>35015</v>
@@ -2556,14 +2562,14 @@
       <c r="I46">
         <v>1</v>
       </c>
-      <c r="J46">
-        <v>3</v>
+      <c r="J46" t="s">
+        <v>57</v>
       </c>
       <c r="K46" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L46">
-        <v>4</v>
+        <v>494</v>
       </c>
       <c r="M46">
         <v>35015</v>
@@ -2600,14 +2606,14 @@
       <c r="I47">
         <v>1</v>
       </c>
-      <c r="J47">
-        <v>3</v>
+      <c r="J47" t="s">
+        <v>56</v>
       </c>
       <c r="K47" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L47">
-        <v>4</v>
+        <v>2268</v>
       </c>
       <c r="M47">
         <v>35017</v>
@@ -2644,14 +2650,14 @@
       <c r="I48">
         <v>1</v>
       </c>
-      <c r="J48">
-        <v>3</v>
+      <c r="J48" t="s">
+        <v>56</v>
       </c>
       <c r="K48" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L48">
-        <v>4</v>
+        <v>2273</v>
       </c>
       <c r="M48">
         <v>35017</v>
@@ -2688,14 +2694,14 @@
       <c r="I49">
         <v>1</v>
       </c>
-      <c r="J49">
-        <v>3</v>
+      <c r="J49" t="s">
+        <v>57</v>
       </c>
       <c r="K49" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L49">
-        <v>4</v>
+        <v>1249</v>
       </c>
       <c r="M49">
         <v>35017</v>
@@ -2732,14 +2738,14 @@
       <c r="I50">
         <v>1</v>
       </c>
-      <c r="J50">
-        <v>3</v>
+      <c r="J50" t="s">
+        <v>57</v>
       </c>
       <c r="K50" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L50">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="M50">
         <v>35017</v>
@@ -2776,14 +2782,14 @@
       <c r="I51">
         <v>1</v>
       </c>
-      <c r="J51">
-        <v>3</v>
+      <c r="J51" t="s">
+        <v>57</v>
       </c>
       <c r="K51" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L51">
-        <v>4</v>
+        <v>207</v>
       </c>
       <c r="M51">
         <v>35017</v>
@@ -2820,14 +2826,14 @@
       <c r="I52">
         <v>1</v>
       </c>
-      <c r="J52">
-        <v>3</v>
+      <c r="J52" t="s">
+        <v>56</v>
       </c>
       <c r="K52" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L52">
-        <v>4</v>
+        <v>331</v>
       </c>
       <c r="M52">
         <v>35019</v>
@@ -2864,14 +2870,14 @@
       <c r="I53">
         <v>1</v>
       </c>
-      <c r="J53">
-        <v>3</v>
+      <c r="J53" t="s">
+        <v>56</v>
       </c>
       <c r="K53" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L53">
-        <v>4</v>
+        <v>400</v>
       </c>
       <c r="M53">
         <v>35019</v>
@@ -2908,14 +2914,14 @@
       <c r="I54">
         <v>1</v>
       </c>
-      <c r="J54">
-        <v>3</v>
+      <c r="J54" t="s">
+        <v>57</v>
       </c>
       <c r="K54" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L54">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="M54">
         <v>35019</v>
@@ -2952,14 +2958,14 @@
       <c r="I55">
         <v>1</v>
       </c>
-      <c r="J55">
-        <v>3</v>
+      <c r="J55" t="s">
+        <v>57</v>
       </c>
       <c r="K55" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L55">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M55">
         <v>35019</v>
@@ -2996,14 +3002,14 @@
       <c r="I56">
         <v>1</v>
       </c>
-      <c r="J56">
-        <v>3</v>
+      <c r="J56" t="s">
+        <v>57</v>
       </c>
       <c r="K56" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L56">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="M56">
         <v>35019</v>
@@ -3040,14 +3046,14 @@
       <c r="I57">
         <v>1</v>
       </c>
-      <c r="J57">
-        <v>3</v>
+      <c r="J57" t="s">
+        <v>56</v>
       </c>
       <c r="K57" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L57">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="M57">
         <v>35021</v>
@@ -3084,14 +3090,14 @@
       <c r="I58">
         <v>1</v>
       </c>
-      <c r="J58">
-        <v>3</v>
+      <c r="J58" t="s">
+        <v>56</v>
       </c>
       <c r="K58" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L58">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="M58">
         <v>35021</v>
@@ -3128,14 +3134,14 @@
       <c r="I59">
         <v>1</v>
       </c>
-      <c r="J59">
-        <v>3</v>
+      <c r="J59" t="s">
+        <v>57</v>
       </c>
       <c r="K59" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L59">
-        <v>4</v>
+        <v>108</v>
       </c>
       <c r="M59">
         <v>35021</v>
@@ -3172,14 +3178,14 @@
       <c r="I60">
         <v>1</v>
       </c>
-      <c r="J60">
-        <v>3</v>
+      <c r="J60" t="s">
+        <v>57</v>
       </c>
       <c r="K60" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L60">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M60">
         <v>35021</v>
@@ -3216,14 +3222,14 @@
       <c r="I61">
         <v>1</v>
       </c>
-      <c r="J61">
-        <v>3</v>
+      <c r="J61" t="s">
+        <v>57</v>
       </c>
       <c r="K61" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L61">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="M61">
         <v>35021</v>
@@ -3260,14 +3266,14 @@
       <c r="I62">
         <v>1</v>
       </c>
-      <c r="J62">
-        <v>3</v>
+      <c r="J62" t="s">
+        <v>56</v>
       </c>
       <c r="K62" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L62">
-        <v>4</v>
+        <v>324</v>
       </c>
       <c r="M62">
         <v>35023</v>
@@ -3304,14 +3310,14 @@
       <c r="I63">
         <v>1</v>
       </c>
-      <c r="J63">
-        <v>3</v>
+      <c r="J63" t="s">
+        <v>56</v>
       </c>
       <c r="K63" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L63">
-        <v>4</v>
+        <v>516</v>
       </c>
       <c r="M63">
         <v>35023</v>
@@ -3348,14 +3354,14 @@
       <c r="I64">
         <v>1</v>
       </c>
-      <c r="J64">
-        <v>3</v>
+      <c r="J64" t="s">
+        <v>57</v>
       </c>
       <c r="K64" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L64">
-        <v>4</v>
+        <v>283</v>
       </c>
       <c r="M64">
         <v>35023</v>
@@ -3392,14 +3398,14 @@
       <c r="I65">
         <v>1</v>
       </c>
-      <c r="J65">
-        <v>3</v>
+      <c r="J65" t="s">
+        <v>57</v>
       </c>
       <c r="K65" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L65">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="M65">
         <v>35023</v>
@@ -3436,14 +3442,14 @@
       <c r="I66">
         <v>1</v>
       </c>
-      <c r="J66">
-        <v>3</v>
+      <c r="J66" t="s">
+        <v>57</v>
       </c>
       <c r="K66" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L66">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="M66">
         <v>35023</v>
@@ -3480,14 +3486,14 @@
       <c r="I67">
         <v>1</v>
       </c>
-      <c r="J67">
-        <v>3</v>
+      <c r="J67" t="s">
+        <v>56</v>
       </c>
       <c r="K67" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L67">
-        <v>4</v>
+        <v>652</v>
       </c>
       <c r="M67">
         <v>35025</v>
@@ -3524,14 +3530,14 @@
       <c r="I68">
         <v>1</v>
       </c>
-      <c r="J68">
-        <v>3</v>
+      <c r="J68" t="s">
+        <v>56</v>
       </c>
       <c r="K68" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L68">
-        <v>4</v>
+        <v>706</v>
       </c>
       <c r="M68">
         <v>35025</v>
@@ -3568,14 +3574,14 @@
       <c r="I69">
         <v>1</v>
       </c>
-      <c r="J69">
-        <v>3</v>
+      <c r="J69" t="s">
+        <v>57</v>
       </c>
       <c r="K69" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L69">
-        <v>4</v>
+        <v>3113</v>
       </c>
       <c r="M69">
         <v>35025</v>
@@ -3612,14 +3618,14 @@
       <c r="I70">
         <v>1</v>
       </c>
-      <c r="J70">
-        <v>3</v>
+      <c r="J70" t="s">
+        <v>57</v>
       </c>
       <c r="K70" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L70">
-        <v>4</v>
+        <v>127</v>
       </c>
       <c r="M70">
         <v>35025</v>
@@ -3656,14 +3662,14 @@
       <c r="I71">
         <v>1</v>
       </c>
-      <c r="J71">
-        <v>3</v>
+      <c r="J71" t="s">
+        <v>57</v>
       </c>
       <c r="K71" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L71">
-        <v>4</v>
+        <v>446</v>
       </c>
       <c r="M71">
         <v>35025</v>
@@ -3700,14 +3706,14 @@
       <c r="I72">
         <v>1</v>
       </c>
-      <c r="J72">
-        <v>3</v>
+      <c r="J72" t="s">
+        <v>56</v>
       </c>
       <c r="K72" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L72">
-        <v>4</v>
+        <v>528</v>
       </c>
       <c r="M72">
         <v>35027</v>
@@ -3744,14 +3750,14 @@
       <c r="I73">
         <v>1</v>
       </c>
-      <c r="J73">
-        <v>3</v>
+      <c r="J73" t="s">
+        <v>56</v>
       </c>
       <c r="K73" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L73">
-        <v>4</v>
+        <v>516</v>
       </c>
       <c r="M73">
         <v>35027</v>
@@ -3788,14 +3794,14 @@
       <c r="I74">
         <v>1</v>
       </c>
-      <c r="J74">
-        <v>3</v>
+      <c r="J74" t="s">
+        <v>57</v>
       </c>
       <c r="K74" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L74">
-        <v>4</v>
+        <v>2180</v>
       </c>
       <c r="M74">
         <v>35027</v>
@@ -3832,14 +3838,14 @@
       <c r="I75">
         <v>1</v>
       </c>
-      <c r="J75">
-        <v>3</v>
+      <c r="J75" t="s">
+        <v>57</v>
       </c>
       <c r="K75" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L75">
-        <v>4</v>
+        <v>131</v>
       </c>
       <c r="M75">
         <v>35027</v>
@@ -3876,14 +3882,14 @@
       <c r="I76">
         <v>1</v>
       </c>
-      <c r="J76">
-        <v>3</v>
+      <c r="J76" t="s">
+        <v>57</v>
       </c>
       <c r="K76" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L76">
-        <v>4</v>
+        <v>274</v>
       </c>
       <c r="M76">
         <v>35027</v>
@@ -3920,14 +3926,14 @@
       <c r="I77">
         <v>1</v>
       </c>
-      <c r="J77">
-        <v>3</v>
+      <c r="J77" t="s">
+        <v>56</v>
       </c>
       <c r="K77" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L77">
-        <v>4</v>
+        <v>1405</v>
       </c>
       <c r="M77">
         <v>35028</v>
@@ -3964,14 +3970,14 @@
       <c r="I78">
         <v>1</v>
       </c>
-      <c r="J78">
-        <v>3</v>
+      <c r="J78" t="s">
+        <v>56</v>
       </c>
       <c r="K78" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L78">
-        <v>4</v>
+        <v>1425</v>
       </c>
       <c r="M78">
         <v>35028</v>
@@ -4008,14 +4014,14 @@
       <c r="I79">
         <v>1</v>
       </c>
-      <c r="J79">
-        <v>3</v>
+      <c r="J79" t="s">
+        <v>57</v>
       </c>
       <c r="K79" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L79">
-        <v>4</v>
+        <v>788</v>
       </c>
       <c r="M79">
         <v>35028</v>
@@ -4052,14 +4058,14 @@
       <c r="I80">
         <v>1</v>
       </c>
-      <c r="J80">
-        <v>3</v>
+      <c r="J80" t="s">
+        <v>57</v>
       </c>
       <c r="K80" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L80">
-        <v>4</v>
+        <v>327</v>
       </c>
       <c r="M80">
         <v>35028</v>
@@ -4096,14 +4102,14 @@
       <c r="I81">
         <v>1</v>
       </c>
-      <c r="J81">
-        <v>3</v>
+      <c r="J81" t="s">
+        <v>57</v>
       </c>
       <c r="K81" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L81">
-        <v>4</v>
+        <v>221</v>
       </c>
       <c r="M81">
         <v>35028</v>
@@ -4140,14 +4146,14 @@
       <c r="I82">
         <v>1</v>
       </c>
-      <c r="J82">
-        <v>3</v>
+      <c r="J82" t="s">
+        <v>56</v>
       </c>
       <c r="K82" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L82">
-        <v>4</v>
+        <v>715</v>
       </c>
       <c r="M82">
         <v>35029</v>
@@ -4184,14 +4190,14 @@
       <c r="I83">
         <v>1</v>
       </c>
-      <c r="J83">
-        <v>3</v>
+      <c r="J83" t="s">
+        <v>56</v>
       </c>
       <c r="K83" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L83">
-        <v>4</v>
+        <v>918</v>
       </c>
       <c r="M83">
         <v>35029</v>
@@ -4228,14 +4234,14 @@
       <c r="I84">
         <v>1</v>
       </c>
-      <c r="J84">
-        <v>3</v>
+      <c r="J84" t="s">
+        <v>57</v>
       </c>
       <c r="K84" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L84">
-        <v>4</v>
+        <v>1124</v>
       </c>
       <c r="M84">
         <v>35029</v>
@@ -4272,14 +4278,14 @@
       <c r="I85">
         <v>1</v>
       </c>
-      <c r="J85">
-        <v>3</v>
+      <c r="J85" t="s">
+        <v>57</v>
       </c>
       <c r="K85" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L85">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="M85">
         <v>35029</v>
@@ -4316,14 +4322,14 @@
       <c r="I86">
         <v>1</v>
       </c>
-      <c r="J86">
-        <v>3</v>
+      <c r="J86" t="s">
+        <v>57</v>
       </c>
       <c r="K86" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L86">
-        <v>4</v>
+        <v>144</v>
       </c>
       <c r="M86">
         <v>35029</v>
@@ -4360,14 +4366,14 @@
       <c r="I87">
         <v>1</v>
       </c>
-      <c r="J87">
-        <v>3</v>
+      <c r="J87" t="s">
+        <v>56</v>
       </c>
       <c r="K87" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L87">
-        <v>4</v>
+        <v>3300</v>
       </c>
       <c r="M87">
         <v>35031</v>
@@ -4404,14 +4410,14 @@
       <c r="I88">
         <v>1</v>
       </c>
-      <c r="J88">
-        <v>3</v>
+      <c r="J88" t="s">
+        <v>56</v>
       </c>
       <c r="K88" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L88">
-        <v>4</v>
+        <v>4762</v>
       </c>
       <c r="M88">
         <v>35031</v>
@@ -4448,14 +4454,14 @@
       <c r="I89">
         <v>1</v>
       </c>
-      <c r="J89">
-        <v>3</v>
+      <c r="J89" t="s">
+        <v>57</v>
       </c>
       <c r="K89" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L89">
-        <v>4</v>
+        <v>756</v>
       </c>
       <c r="M89">
         <v>35031</v>
@@ -4492,14 +4498,14 @@
       <c r="I90">
         <v>1</v>
       </c>
-      <c r="J90">
-        <v>3</v>
+      <c r="J90" t="s">
+        <v>57</v>
       </c>
       <c r="K90" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L90">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="M90">
         <v>35031</v>
@@ -4536,14 +4542,14 @@
       <c r="I91">
         <v>1</v>
       </c>
-      <c r="J91">
-        <v>3</v>
+      <c r="J91" t="s">
+        <v>57</v>
       </c>
       <c r="K91" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L91">
-        <v>4</v>
+        <v>295</v>
       </c>
       <c r="M91">
         <v>35031</v>
@@ -4580,14 +4586,14 @@
       <c r="I92">
         <v>1</v>
       </c>
-      <c r="J92">
-        <v>3</v>
+      <c r="J92" t="s">
+        <v>56</v>
       </c>
       <c r="K92" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L92">
-        <v>4</v>
+        <v>604</v>
       </c>
       <c r="M92">
         <v>35033</v>
@@ -4624,14 +4630,14 @@
       <c r="I93">
         <v>1</v>
       </c>
-      <c r="J93">
-        <v>3</v>
+      <c r="J93" t="s">
+        <v>56</v>
       </c>
       <c r="K93" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L93">
-        <v>4</v>
+        <v>987</v>
       </c>
       <c r="M93">
         <v>35033</v>
@@ -4668,14 +4674,14 @@
       <c r="I94">
         <v>1</v>
       </c>
-      <c r="J94">
-        <v>3</v>
+      <c r="J94" t="s">
+        <v>57</v>
       </c>
       <c r="K94" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L94">
-        <v>4</v>
+        <v>124</v>
       </c>
       <c r="M94">
         <v>35033</v>
@@ -4712,14 +4718,14 @@
       <c r="I95">
         <v>1</v>
       </c>
-      <c r="J95">
-        <v>3</v>
+      <c r="J95" t="s">
+        <v>57</v>
       </c>
       <c r="K95" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L95">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M95">
         <v>35033</v>
@@ -4756,14 +4762,14 @@
       <c r="I96">
         <v>1</v>
       </c>
-      <c r="J96">
-        <v>3</v>
+      <c r="J96" t="s">
+        <v>57</v>
       </c>
       <c r="K96" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L96">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="M96">
         <v>35033</v>
@@ -4800,14 +4806,14 @@
       <c r="I97">
         <v>1</v>
       </c>
-      <c r="J97">
-        <v>3</v>
+      <c r="J97" t="s">
+        <v>56</v>
       </c>
       <c r="K97" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L97">
-        <v>4</v>
+        <v>1191</v>
       </c>
       <c r="M97">
         <v>35035</v>
@@ -4844,14 +4850,14 @@
       <c r="I98">
         <v>1</v>
       </c>
-      <c r="J98">
-        <v>3</v>
+      <c r="J98" t="s">
+        <v>56</v>
       </c>
       <c r="K98" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L98">
-        <v>4</v>
+        <v>1325</v>
       </c>
       <c r="M98">
         <v>35035</v>
@@ -4888,14 +4894,14 @@
       <c r="I99">
         <v>1</v>
       </c>
-      <c r="J99">
-        <v>3</v>
+      <c r="J99" t="s">
+        <v>57</v>
       </c>
       <c r="K99" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L99">
-        <v>4</v>
+        <v>3257</v>
       </c>
       <c r="M99">
         <v>35035</v>
@@ -4932,14 +4938,14 @@
       <c r="I100">
         <v>1</v>
       </c>
-      <c r="J100">
-        <v>3</v>
+      <c r="J100" t="s">
+        <v>57</v>
       </c>
       <c r="K100" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L100">
-        <v>4</v>
+        <v>244</v>
       </c>
       <c r="M100">
         <v>35035</v>
@@ -4976,14 +4982,14 @@
       <c r="I101">
         <v>1</v>
       </c>
-      <c r="J101">
-        <v>3</v>
+      <c r="J101" t="s">
+        <v>57</v>
       </c>
       <c r="K101" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L101">
-        <v>4</v>
+        <v>596</v>
       </c>
       <c r="M101">
         <v>35035</v>
@@ -5020,14 +5026,14 @@
       <c r="I102">
         <v>1</v>
       </c>
-      <c r="J102">
-        <v>3</v>
+      <c r="J102" t="s">
+        <v>56</v>
       </c>
       <c r="K102" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L102">
-        <v>4</v>
+        <v>446</v>
       </c>
       <c r="M102">
         <v>35037</v>
@@ -5064,14 +5070,14 @@
       <c r="I103">
         <v>1</v>
       </c>
-      <c r="J103">
-        <v>3</v>
+      <c r="J103" t="s">
+        <v>56</v>
       </c>
       <c r="K103" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L103">
-        <v>4</v>
+        <v>474</v>
       </c>
       <c r="M103">
         <v>35037</v>
@@ -5108,14 +5114,14 @@
       <c r="I104">
         <v>1</v>
       </c>
-      <c r="J104">
-        <v>3</v>
+      <c r="J104" t="s">
+        <v>57</v>
       </c>
       <c r="K104" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L104">
-        <v>4</v>
+        <v>696</v>
       </c>
       <c r="M104">
         <v>35037</v>
@@ -5152,14 +5158,14 @@
       <c r="I105">
         <v>1</v>
       </c>
-      <c r="J105">
-        <v>3</v>
+      <c r="J105" t="s">
+        <v>57</v>
       </c>
       <c r="K105" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L105">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="M105">
         <v>35037</v>
@@ -5196,14 +5202,14 @@
       <c r="I106">
         <v>1</v>
       </c>
-      <c r="J106">
-        <v>3</v>
+      <c r="J106" t="s">
+        <v>57</v>
       </c>
       <c r="K106" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L106">
-        <v>4</v>
+        <v>121</v>
       </c>
       <c r="M106">
         <v>35037</v>
@@ -5240,14 +5246,14 @@
       <c r="I107">
         <v>1</v>
       </c>
-      <c r="J107">
-        <v>3</v>
+      <c r="J107" t="s">
+        <v>56</v>
       </c>
       <c r="K107" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L107">
-        <v>4</v>
+        <v>3253</v>
       </c>
       <c r="M107">
         <v>35039</v>
@@ -5284,14 +5290,14 @@
       <c r="I108">
         <v>1</v>
       </c>
-      <c r="J108">
-        <v>3</v>
+      <c r="J108" t="s">
+        <v>56</v>
       </c>
       <c r="K108" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L108">
-        <v>4</v>
+        <v>4916</v>
       </c>
       <c r="M108">
         <v>35039</v>
@@ -5328,14 +5334,14 @@
       <c r="I109">
         <v>1</v>
       </c>
-      <c r="J109">
-        <v>3</v>
+      <c r="J109" t="s">
+        <v>57</v>
       </c>
       <c r="K109" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L109">
-        <v>4</v>
+        <v>466</v>
       </c>
       <c r="M109">
         <v>35039</v>
@@ -5372,14 +5378,14 @@
       <c r="I110">
         <v>1</v>
       </c>
-      <c r="J110">
-        <v>3</v>
+      <c r="J110" t="s">
+        <v>57</v>
       </c>
       <c r="K110" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L110">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="M110">
         <v>35039</v>
@@ -5416,14 +5422,14 @@
       <c r="I111">
         <v>1</v>
       </c>
-      <c r="J111">
-        <v>3</v>
+      <c r="J111" t="s">
+        <v>57</v>
       </c>
       <c r="K111" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L111">
-        <v>4</v>
+        <v>133</v>
       </c>
       <c r="M111">
         <v>35039</v>
@@ -5460,14 +5466,14 @@
       <c r="I112">
         <v>1</v>
       </c>
-      <c r="J112">
-        <v>3</v>
+      <c r="J112" t="s">
+        <v>56</v>
       </c>
       <c r="K112" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L112">
-        <v>4</v>
+        <v>393</v>
       </c>
       <c r="M112">
         <v>35041</v>
@@ -5504,14 +5510,14 @@
       <c r="I113">
         <v>1</v>
       </c>
-      <c r="J113">
-        <v>3</v>
+      <c r="J113" t="s">
+        <v>56</v>
       </c>
       <c r="K113" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L113">
-        <v>4</v>
+        <v>282</v>
       </c>
       <c r="M113">
         <v>35041</v>
@@ -5548,14 +5554,14 @@
       <c r="I114">
         <v>1</v>
       </c>
-      <c r="J114">
-        <v>3</v>
+      <c r="J114" t="s">
+        <v>57</v>
       </c>
       <c r="K114" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L114">
-        <v>4</v>
+        <v>967</v>
       </c>
       <c r="M114">
         <v>35041</v>
@@ -5592,14 +5598,14 @@
       <c r="I115">
         <v>1</v>
       </c>
-      <c r="J115">
-        <v>3</v>
+      <c r="J115" t="s">
+        <v>57</v>
       </c>
       <c r="K115" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L115">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="M115">
         <v>35041</v>
@@ -5636,14 +5642,14 @@
       <c r="I116">
         <v>1</v>
       </c>
-      <c r="J116">
-        <v>3</v>
+      <c r="J116" t="s">
+        <v>57</v>
       </c>
       <c r="K116" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L116">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="M116">
         <v>35041</v>
@@ -5680,14 +5686,14 @@
       <c r="I117">
         <v>1</v>
       </c>
-      <c r="J117">
-        <v>3</v>
+      <c r="J117" t="s">
+        <v>56</v>
       </c>
       <c r="K117" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L117">
-        <v>4</v>
+        <v>2736</v>
       </c>
       <c r="M117">
         <v>35045</v>
@@ -5724,14 +5730,14 @@
       <c r="I118">
         <v>1</v>
       </c>
-      <c r="J118">
-        <v>3</v>
+      <c r="J118" t="s">
+        <v>56</v>
       </c>
       <c r="K118" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L118">
-        <v>4</v>
+        <v>3020</v>
       </c>
       <c r="M118">
         <v>35045</v>
@@ -5768,14 +5774,14 @@
       <c r="I119">
         <v>1</v>
       </c>
-      <c r="J119">
-        <v>3</v>
+      <c r="J119" t="s">
+        <v>57</v>
       </c>
       <c r="K119" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L119">
-        <v>4</v>
+        <v>5750</v>
       </c>
       <c r="M119">
         <v>35045</v>
@@ -5812,14 +5818,14 @@
       <c r="I120">
         <v>1</v>
       </c>
-      <c r="J120">
-        <v>3</v>
+      <c r="J120" t="s">
+        <v>57</v>
       </c>
       <c r="K120" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L120">
-        <v>4</v>
+        <v>394</v>
       </c>
       <c r="M120">
         <v>35045</v>
@@ -5856,14 +5862,14 @@
       <c r="I121">
         <v>1</v>
       </c>
-      <c r="J121">
-        <v>3</v>
+      <c r="J121" t="s">
+        <v>57</v>
       </c>
       <c r="K121" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L121">
-        <v>4</v>
+        <v>1213</v>
       </c>
       <c r="M121">
         <v>35045</v>
@@ -5900,14 +5906,14 @@
       <c r="I122">
         <v>1</v>
       </c>
-      <c r="J122">
-        <v>3</v>
+      <c r="J122" t="s">
+        <v>56</v>
       </c>
       <c r="K122" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L122">
-        <v>4</v>
+        <v>2342</v>
       </c>
       <c r="M122">
         <v>35047</v>
@@ -5944,14 +5950,14 @@
       <c r="I123">
         <v>1</v>
       </c>
-      <c r="J123">
-        <v>3</v>
+      <c r="J123" t="s">
+        <v>56</v>
       </c>
       <c r="K123" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L123">
-        <v>4</v>
+        <v>3419</v>
       </c>
       <c r="M123">
         <v>35047</v>
@@ -5988,14 +5994,14 @@
       <c r="I124">
         <v>1</v>
       </c>
-      <c r="J124">
-        <v>3</v>
+      <c r="J124" t="s">
+        <v>57</v>
       </c>
       <c r="K124" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L124">
-        <v>4</v>
+        <v>345</v>
       </c>
       <c r="M124">
         <v>35047</v>
@@ -6032,14 +6038,14 @@
       <c r="I125">
         <v>1</v>
       </c>
-      <c r="J125">
-        <v>3</v>
+      <c r="J125" t="s">
+        <v>57</v>
       </c>
       <c r="K125" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L125">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="M125">
         <v>35047</v>
@@ -6076,14 +6082,14 @@
       <c r="I126">
         <v>1</v>
       </c>
-      <c r="J126">
-        <v>3</v>
+      <c r="J126" t="s">
+        <v>57</v>
       </c>
       <c r="K126" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L126">
-        <v>4</v>
+        <v>127</v>
       </c>
       <c r="M126">
         <v>35047</v>
@@ -6120,14 +6126,14 @@
       <c r="I127">
         <v>1</v>
       </c>
-      <c r="J127">
-        <v>3</v>
+      <c r="J127" t="s">
+        <v>56</v>
       </c>
       <c r="K127" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L127">
-        <v>4</v>
+        <v>6959</v>
       </c>
       <c r="M127">
         <v>35043</v>
@@ -6164,14 +6170,14 @@
       <c r="I128">
         <v>1</v>
       </c>
-      <c r="J128">
-        <v>3</v>
+      <c r="J128" t="s">
+        <v>56</v>
       </c>
       <c r="K128" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L128">
-        <v>4</v>
+        <v>7449</v>
       </c>
       <c r="M128">
         <v>35043</v>
@@ -6208,14 +6214,14 @@
       <c r="I129">
         <v>1</v>
       </c>
-      <c r="J129">
-        <v>3</v>
+      <c r="J129" t="s">
+        <v>57</v>
       </c>
       <c r="K129" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L129">
-        <v>4</v>
+        <v>5677</v>
       </c>
       <c r="M129">
         <v>35043</v>
@@ -6252,14 +6258,14 @@
       <c r="I130">
         <v>1</v>
       </c>
-      <c r="J130">
-        <v>3</v>
+      <c r="J130" t="s">
+        <v>57</v>
       </c>
       <c r="K130" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L130">
-        <v>4</v>
+        <v>597</v>
       </c>
       <c r="M130">
         <v>35043</v>
@@ -6296,14 +6302,14 @@
       <c r="I131">
         <v>1</v>
       </c>
-      <c r="J131">
-        <v>3</v>
+      <c r="J131" t="s">
+        <v>57</v>
       </c>
       <c r="K131" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L131">
-        <v>4</v>
+        <v>1064</v>
       </c>
       <c r="M131">
         <v>35043</v>
@@ -6340,14 +6346,14 @@
       <c r="I132">
         <v>1</v>
       </c>
-      <c r="J132">
-        <v>3</v>
+      <c r="J132" t="s">
+        <v>56</v>
       </c>
       <c r="K132" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L132">
-        <v>4</v>
+        <v>15704</v>
       </c>
       <c r="M132">
         <v>35049</v>
@@ -6384,14 +6390,14 @@
       <c r="I133">
         <v>1</v>
       </c>
-      <c r="J133">
-        <v>3</v>
+      <c r="J133" t="s">
+        <v>56</v>
       </c>
       <c r="K133" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L133">
-        <v>4</v>
+        <v>16088</v>
       </c>
       <c r="M133">
         <v>35049</v>
@@ -6428,14 +6434,14 @@
       <c r="I134">
         <v>1</v>
       </c>
-      <c r="J134">
-        <v>3</v>
+      <c r="J134" t="s">
+        <v>57</v>
       </c>
       <c r="K134" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L134">
-        <v>4</v>
+        <v>2863</v>
       </c>
       <c r="M134">
         <v>35049</v>
@@ -6472,14 +6478,14 @@
       <c r="I135">
         <v>1</v>
       </c>
-      <c r="J135">
-        <v>3</v>
+      <c r="J135" t="s">
+        <v>57</v>
       </c>
       <c r="K135" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L135">
-        <v>4</v>
+        <v>563</v>
       </c>
       <c r="M135">
         <v>35049</v>
@@ -6516,14 +6522,14 @@
       <c r="I136">
         <v>1</v>
       </c>
-      <c r="J136">
-        <v>3</v>
+      <c r="J136" t="s">
+        <v>57</v>
       </c>
       <c r="K136" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L136">
-        <v>4</v>
+        <v>630</v>
       </c>
       <c r="M136">
         <v>35049</v>
@@ -6560,14 +6566,14 @@
       <c r="I137">
         <v>1</v>
       </c>
-      <c r="J137">
-        <v>3</v>
+      <c r="J137" t="s">
+        <v>56</v>
       </c>
       <c r="K137" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L137">
-        <v>4</v>
+        <v>531</v>
       </c>
       <c r="M137">
         <v>35051</v>
@@ -6604,14 +6610,14 @@
       <c r="I138">
         <v>1</v>
       </c>
-      <c r="J138">
-        <v>3</v>
+      <c r="J138" t="s">
+        <v>56</v>
       </c>
       <c r="K138" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L138">
-        <v>4</v>
+        <v>401</v>
       </c>
       <c r="M138">
         <v>35051</v>
@@ -6648,14 +6654,14 @@
       <c r="I139">
         <v>1</v>
       </c>
-      <c r="J139">
-        <v>3</v>
+      <c r="J139" t="s">
+        <v>57</v>
       </c>
       <c r="K139" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L139">
-        <v>4</v>
+        <v>1014</v>
       </c>
       <c r="M139">
         <v>35051</v>
@@ -6692,14 +6698,14 @@
       <c r="I140">
         <v>1</v>
       </c>
-      <c r="J140">
-        <v>3</v>
+      <c r="J140" t="s">
+        <v>57</v>
       </c>
       <c r="K140" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L140">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="M140">
         <v>35051</v>
@@ -6736,14 +6742,14 @@
       <c r="I141">
         <v>1</v>
       </c>
-      <c r="J141">
-        <v>3</v>
+      <c r="J141" t="s">
+        <v>57</v>
       </c>
       <c r="K141" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L141">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="M141">
         <v>35051</v>
@@ -6780,14 +6786,14 @@
       <c r="I142">
         <v>1</v>
       </c>
-      <c r="J142">
-        <v>3</v>
+      <c r="J142" t="s">
+        <v>56</v>
       </c>
       <c r="K142" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L142">
-        <v>4</v>
+        <v>1025</v>
       </c>
       <c r="M142">
         <v>35053</v>
@@ -6824,14 +6830,14 @@
       <c r="I143">
         <v>1</v>
       </c>
-      <c r="J143">
-        <v>3</v>
+      <c r="J143" t="s">
+        <v>56</v>
       </c>
       <c r="K143" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L143">
-        <v>4</v>
+        <v>1051</v>
       </c>
       <c r="M143">
         <v>35053</v>
@@ -6868,14 +6874,14 @@
       <c r="I144">
         <v>1</v>
       </c>
-      <c r="J144">
-        <v>3</v>
+      <c r="J144" t="s">
+        <v>57</v>
       </c>
       <c r="K144" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L144">
-        <v>4</v>
+        <v>750</v>
       </c>
       <c r="M144">
         <v>35053</v>
@@ -6912,14 +6918,14 @@
       <c r="I145">
         <v>1</v>
       </c>
-      <c r="J145">
-        <v>3</v>
+      <c r="J145" t="s">
+        <v>57</v>
       </c>
       <c r="K145" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L145">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="M145">
         <v>35053</v>
@@ -6956,14 +6962,14 @@
       <c r="I146">
         <v>1</v>
       </c>
-      <c r="J146">
-        <v>3</v>
+      <c r="J146" t="s">
+        <v>57</v>
       </c>
       <c r="K146" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L146">
-        <v>4</v>
+        <v>184</v>
       </c>
       <c r="M146">
         <v>35053</v>
@@ -7000,14 +7006,14 @@
       <c r="I147">
         <v>1</v>
       </c>
-      <c r="J147">
-        <v>3</v>
+      <c r="J147" t="s">
+        <v>56</v>
       </c>
       <c r="K147" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L147">
-        <v>4</v>
+        <v>4326</v>
       </c>
       <c r="M147">
         <v>35055</v>
@@ -7044,14 +7050,14 @@
       <c r="I148">
         <v>1</v>
       </c>
-      <c r="J148">
-        <v>3</v>
+      <c r="J148" t="s">
+        <v>56</v>
       </c>
       <c r="K148" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L148">
-        <v>4</v>
+        <v>3286</v>
       </c>
       <c r="M148">
         <v>35055</v>
@@ -7088,14 +7094,14 @@
       <c r="I149">
         <v>1</v>
       </c>
-      <c r="J149">
-        <v>3</v>
+      <c r="J149" t="s">
+        <v>57</v>
       </c>
       <c r="K149" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L149">
-        <v>4</v>
+        <v>458</v>
       </c>
       <c r="M149">
         <v>35055</v>
@@ -7132,14 +7138,14 @@
       <c r="I150">
         <v>1</v>
       </c>
-      <c r="J150">
-        <v>3</v>
+      <c r="J150" t="s">
+        <v>57</v>
       </c>
       <c r="K150" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L150">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="M150">
         <v>35055</v>
@@ -7176,14 +7182,14 @@
       <c r="I151">
         <v>1</v>
       </c>
-      <c r="J151">
-        <v>3</v>
+      <c r="J151" t="s">
+        <v>57</v>
       </c>
       <c r="K151" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L151">
-        <v>4</v>
+        <v>135</v>
       </c>
       <c r="M151">
         <v>35055</v>
@@ -7220,14 +7226,14 @@
       <c r="I152">
         <v>1</v>
       </c>
-      <c r="J152">
-        <v>3</v>
+      <c r="J152" t="s">
+        <v>56</v>
       </c>
       <c r="K152" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L152">
-        <v>4</v>
+        <v>652</v>
       </c>
       <c r="M152">
         <v>35057</v>
@@ -7264,14 +7270,14 @@
       <c r="I153">
         <v>1</v>
       </c>
-      <c r="J153">
-        <v>3</v>
+      <c r="J153" t="s">
+        <v>56</v>
       </c>
       <c r="K153" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L153">
-        <v>4</v>
+        <v>650</v>
       </c>
       <c r="M153">
         <v>35057</v>
@@ -7308,14 +7314,14 @@
       <c r="I154">
         <v>1</v>
       </c>
-      <c r="J154">
-        <v>3</v>
+      <c r="J154" t="s">
+        <v>57</v>
       </c>
       <c r="K154" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L154">
-        <v>4</v>
+        <v>1017</v>
       </c>
       <c r="M154">
         <v>35057</v>
@@ -7352,14 +7358,14 @@
       <c r="I155">
         <v>1</v>
       </c>
-      <c r="J155">
-        <v>3</v>
+      <c r="J155" t="s">
+        <v>57</v>
       </c>
       <c r="K155" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L155">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="M155">
         <v>35057</v>
@@ -7396,14 +7402,14 @@
       <c r="I156">
         <v>1</v>
       </c>
-      <c r="J156">
-        <v>3</v>
+      <c r="J156" t="s">
+        <v>57</v>
       </c>
       <c r="K156" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L156">
-        <v>4</v>
+        <v>271</v>
       </c>
       <c r="M156">
         <v>35057</v>
@@ -7440,14 +7446,14 @@
       <c r="I157">
         <v>1</v>
       </c>
-      <c r="J157">
-        <v>3</v>
+      <c r="J157" t="s">
+        <v>56</v>
       </c>
       <c r="K157" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L157">
-        <v>4</v>
+        <v>191</v>
       </c>
       <c r="M157">
         <v>35059</v>
@@ -7484,14 +7490,14 @@
       <c r="I158">
         <v>1</v>
       </c>
-      <c r="J158">
-        <v>3</v>
+      <c r="J158" t="s">
+        <v>56</v>
       </c>
       <c r="K158" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L158">
-        <v>4</v>
+        <v>155</v>
       </c>
       <c r="M158">
         <v>35059</v>
@@ -7528,14 +7534,14 @@
       <c r="I159">
         <v>1</v>
       </c>
-      <c r="J159">
-        <v>3</v>
+      <c r="J159" t="s">
+        <v>57</v>
       </c>
       <c r="K159" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L159">
-        <v>4</v>
+        <v>314</v>
       </c>
       <c r="M159">
         <v>35059</v>
@@ -7572,14 +7578,14 @@
       <c r="I160">
         <v>1</v>
       </c>
-      <c r="J160">
-        <v>3</v>
+      <c r="J160" t="s">
+        <v>57</v>
       </c>
       <c r="K160" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L160">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="M160">
         <v>35059</v>
@@ -7616,14 +7622,14 @@
       <c r="I161">
         <v>1</v>
       </c>
-      <c r="J161">
-        <v>3</v>
+      <c r="J161" t="s">
+        <v>57</v>
       </c>
       <c r="K161" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L161">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="M161">
         <v>35059</v>
@@ -7660,14 +7666,14 @@
       <c r="I162">
         <v>1</v>
       </c>
-      <c r="J162">
-        <v>3</v>
+      <c r="J162" t="s">
+        <v>56</v>
       </c>
       <c r="K162" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L162">
-        <v>4</v>
+        <v>2878</v>
       </c>
       <c r="M162">
         <v>35061</v>
@@ -7704,14 +7710,14 @@
       <c r="I163">
         <v>1</v>
       </c>
-      <c r="J163">
-        <v>3</v>
+      <c r="J163" t="s">
+        <v>56</v>
       </c>
       <c r="K163" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L163">
-        <v>4</v>
+        <v>3124</v>
       </c>
       <c r="M163">
         <v>35061</v>
@@ -7748,14 +7754,14 @@
       <c r="I164">
         <v>1</v>
       </c>
-      <c r="J164">
-        <v>3</v>
+      <c r="J164" t="s">
+        <v>57</v>
       </c>
       <c r="K164" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L164">
-        <v>4</v>
+        <v>2615</v>
       </c>
       <c r="M164">
         <v>35061</v>
@@ -7792,14 +7798,14 @@
       <c r="I165">
         <v>1</v>
       </c>
-      <c r="J165">
-        <v>3</v>
+      <c r="J165" t="s">
+        <v>57</v>
       </c>
       <c r="K165" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L165">
-        <v>4</v>
+        <v>219</v>
       </c>
       <c r="M165">
         <v>35061</v>
@@ -7836,14 +7842,14 @@
       <c r="I166">
         <v>1</v>
       </c>
-      <c r="J166">
-        <v>3</v>
+      <c r="J166" t="s">
+        <v>57</v>
       </c>
       <c r="K166" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L166">
-        <v>4</v>
+        <v>591</v>
       </c>
       <c r="M166">
         <v>35061</v>
